--- a/web/storage/excel/Feuil4-Unified_Build.xlsx
+++ b/web/storage/excel/Feuil4-Unified_Build.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\projects\TipTop_Transfer\mobileAppUI\web\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mobileAppUI\web\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil4-Unified_Build" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="188">
   <si>
     <t>UI_ID</t>
   </si>
@@ -313,27 +312,6 @@
     <t>Screenshot_2026-02-11-19-51-28-144.jpg</t>
   </si>
   <si>
-    <t>Fenêtre de confirmation de réussite du transfert
-1- Section1 : Header avec titre "Succès" et bouton de retour
-2- Section2 : Icône de succès (coche verte) au centre
-3- Section3 : Message de confirmation
-    - "Transfert effectué avec succès"
-    - Montant transféré
-    - Bénéficiaire
-4- Section4 : Boutons d'action
-    - "Nouveau transfert"
-    - "Retour à l'accueil"
-5- Section5 : Option de partage du reçu</t>
-  </si>
-  <si>
-    <t>Écran de succès. Structure :
-  - AppBar avec titre 'Succès'
-  - Icône Icons.check_circle (couleur verte, taille 80)
-  - Textes de confirmation
-  - Deux boutons horizontaux (OutlinedButton et ElevatedButton)
-  - Bouton de partage (IconButton) pour le reçu</t>
-  </si>
-  <si>
     <t>Paramètres notifications. 
 En-tête avec bouton retour. 
 Options: 'Notifications push', 'Email', 'SMS', 'Sonnerie', 'Vibration', 'Ne pas déranger'. 
@@ -345,9 +323,6 @@
   </si>
   <si>
     <t>Screenshot_2026-02-11-19-52-13-105.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-52-13-105.jpg</t>
   </si>
   <si>
     <t>Screenshot_2026-02-11-19-52-14-105.jpg</t>
@@ -665,14 +640,6 @@
   </si>
   <si>
     <t>No UI image for this windows yet</t>
-  </si>
-  <si>
-    <t>- UI_Description : OK
-- App_Config_variable :  OK
-- DeepseekRaw_UI_Description-Flutter :  OK
-- DeepseekRaw_App_Config_variable-Flutter :  OK
-- DeepseekRaw_UI_Description-EyeView :  OK
-- DeepseekRaw_App_Config_variable-EyeView :  OK</t>
   </si>
   <si>
     <t>Pas OK</t>
@@ -873,14 +840,6 @@
   <si>
     <t>Window_background_color = white
 Window_text_color = black
-transactionId
-transferAmount
-recipientName
-receiptURL</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
 2- Section2 : 
 button color = white
 4- Section4 : 
@@ -991,6 +950,90 @@
 - DeepseekRaw_App_Config_variable-Flutter : Need to be provided
 - DeepseekRaw_UI_Description-EyeView : Need to be provided
 - DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+transactionId
+transferAmount
+recipientName
+receiptURL
+- app: successAnimationDuration=2000, autoRedirectDelay=5000, shareReceiptEnabled=true
+- server: transactionDetailsEndpoint=/api/transaction/{id}
+- utilisateur: transactionId, transferAmount, recipientName, receiptURL</t>
+  </si>
+  <si>
+    <t>Fenêtre de confirmation de réussite du transfert
+Transaction Success UI – 2-Level Feedback
+Use case : 
+#On user side : 
+     -- step1 : user validate order detail 
+     -- step2 : user validate payment detail detail 
+     -- step3 : user is redirect to transaction_uccess ui 
+#On server side : 
+     -- step1 : server perform payment 
+                       and push feedback to user transaction_uccess ui
+     -- step2 : server perform order 
+                       and push feedback to user transaction_uccess ui 
+Ex: 
+- Operation1 (cercle loader =&gt; ok) 
+- Operation2 (cercle loader =&gt; ok) 
+- Button Create new order
+1- Section1 : Header avec titre "Traitmentde de la transaction"
+2- Section2 : (Aligner à gauche) Operation1 (cercle loader qui se transforme en green check sur notification push venant du server) 
+3- Section3 : (Aligner à gauche) Operation2 (cercle loader qui se transforme en green check sur notification push venant du server) 
+4- Section4 : Message de confirmation
+    - "Transfert effectué avec succès"
+    - Montant transféré
+    - Bénéficiaire
+5- Section5 : Boutons d'action
+    - "Nouveau transfert"
+    - "Retour à l'accueil"
+6- Section6 : Option de partage du reçu</t>
+  </si>
+  <si>
+    <t>Écran de succès. Structure :
+  - AppBar avec titre 'Traitmentde de la transaction'
+  - Icône Icons.check_circle (couleur verte, taille 80)
+  - Texte de status : Operation1 (cercle loader qui se transforme en green check sur notification push venant du server) 
+  - Texte de status : Operation2 (cercle loader qui se transforme en green check sur notification push venant du server) 
+  - Deux boutons horizontaux (OutlinedButton et ElevatedButton)
+  - Bouton de partage (IconButton) pour le reçu</t>
+  </si>
+  <si>
+    <t>- UI_Description : Match the desired UI
+- App_Config_variable :  Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
+- DeepseekRaw_App_Config_variable-Flutter :  Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-EyeView :  Need to be updated and improved as much as possible
+- DeepseekRaw_App_Config_variable-EyeView :  Need to be updated and improved as much as possible</t>
+  </si>
+  <si>
+    <t>BankCard_Manamgement_Window</t>
+  </si>
+  <si>
+    <t>BankCard_Deposit</t>
+  </si>
+  <si>
+    <t>Forex_Conversion</t>
+  </si>
+  <si>
+    <t>BankCard_Locking</t>
+  </si>
+  <si>
+    <t>BankCard_Deletion</t>
+  </si>
+  <si>
+    <t>Screenshot%20Wave/Screenshot_2026-02-11-19-49-54-891.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-51-29-144.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-285.jpg</t>
+  </si>
+  <si>
+    <t>Besoin de créer un UI pour cettre fenetre</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1470,10 @@
   <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="T22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD24"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>3</v>
@@ -1538,10 +1581,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>22</v>
@@ -1556,19 +1599,19 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1599,10 +1642,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>22</v>
@@ -1617,19 +1660,19 @@
         <v>33</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1642,13 +1685,13 @@
       <c r="U3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1658,10 +1701,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
@@ -1673,27 +1716,27 @@
         <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>39</v>
@@ -1705,8 +1748,8 @@
       <c r="U4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>29</v>
+      <c r="V4" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>41</v>
@@ -1723,10 +1766,10 @@
         <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1741,19 +1784,19 @@
         <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1768,13 +1811,13 @@
       <c r="U5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="7" t="s">
         <v>48</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1784,10 +1827,10 @@
         <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
@@ -1799,22 +1842,22 @@
         <v>24</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1827,7 +1870,7 @@
       <c r="U6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="W6" s="3"/>
@@ -1843,10 +1886,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>22</v>
@@ -1858,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1888,26 +1931,26 @@
       <c r="U7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
@@ -1919,22 +1962,22 @@
         <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1949,7 +1992,7 @@
       <c r="U8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="W8" s="3"/>
@@ -1959,16 +2002,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -1980,22 +2023,22 @@
         <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2008,26 +2051,26 @@
       <c r="U9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
@@ -2039,22 +2082,22 @@
         <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2067,7 +2110,7 @@
       <c r="U10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="W10" s="3"/>
@@ -2077,16 +2120,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>22</v>
@@ -2098,7 +2141,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2116,26 +2159,26 @@
       <c r="U11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="7" t="s">
         <v>67</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="285" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>22</v>
@@ -2147,10 +2190,10 @@
         <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
@@ -2167,8 +2210,8 @@
       <c r="U12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>67</v>
+      <c r="V12" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="W12" s="3"/>
     </row>
@@ -2177,16 +2220,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>22</v>
@@ -2198,16 +2241,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
@@ -2216,7 +2259,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>28</v>
@@ -2224,13 +2267,13 @@
       <c r="U13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>67</v>
+      <c r="V13" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="270" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2240,10 +2283,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>22</v>
@@ -2255,16 +2298,16 @@
         <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -2279,8 +2322,8 @@
       <c r="U14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>71</v>
+      <c r="V14" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="W14" s="3"/>
     </row>
@@ -2292,13 +2335,13 @@
         <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>22</v>
@@ -2310,16 +2353,16 @@
         <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
@@ -2334,26 +2377,26 @@
       <c r="U15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>74</v>
+      <c r="V15" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
@@ -2365,37 +2408,37 @@
         <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="T16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V16" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="V16" s="7"/>
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" ht="240" x14ac:dyDescent="0.25">
@@ -2403,25 +2446,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
@@ -2434,33 +2477,35 @@
       <c r="S17" s="4"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
@@ -2471,11 +2516,13 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="V18" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,16 +2530,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
@@ -2504,16 +2551,16 @@
         <v>24</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
@@ -2528,23 +2575,27 @@
       <c r="U19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>82</v>
+      <c r="V19" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2561,21 +2612,27 @@
       <c r="S20" s="4"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2592,21 +2649,27 @@
       <c r="S21" s="4"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="V21" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2623,21 +2686,27 @@
       <c r="S22" s="4"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="V22" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2654,21 +2723,27 @@
       <c r="S23" s="4"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="V23" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2685,7 +2760,9 @@
       <c r="S24" s="4"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="V24" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2751,21 +2828,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/web/storage/excel/Feuil4-Unified_Build.xlsx
+++ b/web/storage/excel/Feuil4-Unified_Build.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="194">
   <si>
     <t>UI_ID</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Screenshot%20Wave/</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-891.jpg</t>
   </si>
   <si>
     <t>Authentication_PIN_with_Fingerprint_opt</t>
@@ -140,9 +134,6 @@
  - Bouton d'empreinte digitale en bas à droite (remplace le bouton suppression). 
  - Message 'Utilisez votre empreinte digitale ou code PIN'. 
 Fond blanc, accents bleus.</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-892.jpg</t>
   </si>
   <si>
     <t>MainWindow_with_balance_visiblility_on</t>
@@ -179,9 +170,6 @@
 - Créer un système de gestion de la navigation de l'utilisateur à l'interieur de l'app de sorte que si l'utisateur appuie sur le bouton de retour de son telephone, cela le</t>
   </si>
   <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-49-54-891.jpg</t>
-  </si>
-  <si>
     <t>MainWindow_with_balance_visiblility_off</t>
   </si>
   <si>
@@ -201,9 +189,6 @@
   </si>
   <si>
     <t>Les fenetres UI_Name = MainWindow_with_balance_visiblility_on (Screenshot_2026-02-11-19-49-54-891.jpg) et UI_Name = MainWindow_with_balance_visiblility_off (Screenshot_2026-02-11-19-50-25-695.jpg) sont similaires à l'exception du bouton de visibilité du Montant du solde dans UI_Name = MainWindow_with_balance_visiblility_off qui est desactivé et le texte du solde qui est remplacé par 8 points</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-25-695.jpg</t>
   </si>
   <si>
     <t>MainWindow_TransactionsHistory_with_balance_visiblility_on</t>
@@ -219,9 +204,6 @@
 Padding 2px.</t>
   </si>
   <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-26-695.jpg</t>
-  </si>
-  <si>
     <t>MainWindow_TransactionsHistory_with_balance_visiblility_off</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
   </si>
   <si>
     <t>Les fenetres UI_Name = MainWindow_TransactionsHistory_with_balance_visiblility_on (Screenshot_2026-02-11-19-50-26-695.jpg) et UI_Name = MainWindow_TransactionsHistory_with_balance_visiblility_off (Screenshot_2026-02-11-19-50-27-695.jpg) sont similaires à l'exception du bouton de visibilité du Montant du solde dans UI_Name = MainWindow_TransactionsHistory_with_balance_visiblility_off qui est desactivé et le texte du solde qui est remplacé par 8 points</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-695.jpg</t>
   </si>
   <si>
     <t>Screenshot_2026-02-11-19-50-27-696.jpg</t>
@@ -259,25 +238,13 @@
           Ligne2 : Transfert d'argent =&gt; Mobile Money ;  Visa  ; Paypal ;  Stripe</t>
   </si>
   <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-696.jpg</t>
-  </si>
-  <si>
     <t>Screenshot_2026-02-11-19-50-27-697.jpg</t>
   </si>
   <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-697.jpg</t>
-  </si>
-  <si>
     <t>Screenshot_2026-02-11-19-50-27-698.jpg</t>
   </si>
   <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-698.jpg</t>
-  </si>
-  <si>
     <t>Screenshot_2026-02-11-19-50-27-891.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-891.jpg</t>
   </si>
   <si>
     <t>MoneyTransfer_AmountEntry</t>
@@ -294,16 +261,10 @@
   - Bouton 'Suivant' activé si montant &gt; 0 et dans limites</t>
   </si>
   <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-50-42-139.jpg</t>
-  </si>
-  <si>
     <t>MoneyTransfer_Confirmation</t>
   </si>
   <si>
     <t>Screenshot_2026-02-11-19-51-00-818.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-51-00-818.jpg</t>
   </si>
   <si>
     <t>MoneyTransfer_Success</t>
@@ -317,9 +278,6 @@
 Options: 'Notifications push', 'Email', 'SMS', 'Sonnerie', 'Vibration', 'Ne pas déranger'. 
 Toggles ON/OFF pour chaque option. 
 Horaires configurables pour 'Ne pas déranger'.</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-51-28-144.jpg</t>
   </si>
   <si>
     <t>Screenshot_2026-02-11-19-52-13-105.jpg</t>
@@ -1024,23 +982,83 @@
     <t>BankCard_Deletion</t>
   </si>
   <si>
-    <t>Screenshot%20Wave/Screenshot_2026-02-11-19-49-54-891.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-51-29-144.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/Main/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-285.jpg</t>
-  </si>
-  <si>
     <t>Besoin de créer un UI pour cettre fenetre</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-891.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-892.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-54-891.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-25-695.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-26-695.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-695.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-696.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-697.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-698.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-891.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-42-139.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-00-818.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-28-144.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-29-144.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-52-13-105.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-52-14-105.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-285.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-346.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-347.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-348.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-349.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-350.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,6 +1076,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1083,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1122,19 +1148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -1147,11 +1160,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1171,13 +1226,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,8 +1239,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1467,13 +1532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="U24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,157 +1560,155 @@
     <col min="17" max="17" width="38" style="2" customWidth="1"/>
     <col min="18" max="18" width="40.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="43" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="15" style="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="N2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="3"/>
+      <c r="V2" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>22</v>
@@ -1657,54 +1720,53 @@
         <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
@@ -1716,60 +1778,59 @@
         <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
+      <c r="V4" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1781,56 +1842,55 @@
         <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="3"/>
+      <c r="V5" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
@@ -1842,54 +1902,53 @@
         <v>24</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>22</v>
@@ -1901,56 +1960,55 @@
         <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" s="3"/>
+      <c r="V7" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
@@ -1962,56 +2020,55 @@
         <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="W8" s="3"/>
+      <c r="V8" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -2023,54 +2080,53 @@
         <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
@@ -2082,54 +2138,53 @@
         <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W10" s="3"/>
+      <c r="V10" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>22</v>
@@ -2141,7 +2196,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2153,32 +2208,31 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="W11" s="3"/>
+      <c r="V11" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" ht="285" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:22" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>22</v>
@@ -2190,10 +2244,10 @@
         <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
@@ -2204,32 +2258,31 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="3"/>
+      <c r="V12" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" ht="255" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>22</v>
@@ -2241,16 +2294,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
@@ -2259,34 +2312,33 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" ht="270" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:22" ht="270" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>22</v>
@@ -2298,16 +2350,16 @@
         <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -2316,32 +2368,31 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>22</v>
@@ -2353,16 +2404,16 @@
         <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
@@ -2371,32 +2422,31 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V15" s="7" t="s">
+      <c r="V15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
@@ -2408,63 +2458,64 @@
         <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="240" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
@@ -2475,37 +2526,40 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17" s="3"/>
+      <c r="T17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:22" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
@@ -2516,30 +2570,33 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="W18" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
@@ -2551,16 +2608,16 @@
         <v>24</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
@@ -2569,36 +2626,41 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="W19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2610,32 +2672,41 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20" s="3"/>
+      <c r="T20" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2647,32 +2718,41 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="W21" s="3"/>
+      <c r="T21" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2684,32 +2764,41 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="7" t="s">
+      <c r="T22" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="W22" s="3"/>
+      <c r="U22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2721,32 +2810,41 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="W23" s="3"/>
+      <c r="T23" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2758,74 +2856,81 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="W24" s="3"/>
+      <c r="T24" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T3:T24" r:id="rId2" display="https://ttt-mobileapp.fwh.is/storage/screenshot/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/web/storage/excel/Feuil4-Unified_Build.xlsx
+++ b/web/storage/excel/Feuil4-Unified_Build.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil4-Unified_Build" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuil4-Unified_Build'!$A$1:$V$42</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="269">
   <si>
     <t>UI_ID</t>
   </si>
@@ -99,9 +102,6 @@
   </si>
   <si>
     <t>TipTop Transfer</t>
-  </si>
-  <si>
-    <t>Fenetre d'Authentication par code PIN avec bouton de suppression pour les telephones qui n'ont pas les capacités suivantes : empreinte digitale ; reconnaissance faciale</t>
   </si>
   <si>
     <t>Interface d'authentification par code PIN à 4 chiffres. 
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Screenshot_2026-02-11-19-40-54-892.jpg</t>
-  </si>
-  <si>
-    <t>Fenetre d'Authentication par code PIN avec bouton de scan d'empreinte digitale ou bouton de scan faciale pour les telephones qui ont les capacités suivantes : empreinte digitale ; reconnaissance faciale</t>
   </si>
   <si>
     <t>Interface d'authentification avec options biométriques. 
@@ -231,13 +228,6 @@
   - Chaque transaction : Card ou Container avec Column &gt; 2 Rows en spaceBetween</t>
   </si>
   <si>
-    <t>3- Section3 : Box en dessous de Section2
-     Chaque ligne liste le produit/service suivi des sous-composantes
-      Ex:
-          Ligne1 : Achat =&gt; Tranfer d'unité ;  Souscription Pass 
-          Ligne2 : Transfert d'argent =&gt; Mobile Money ;  Visa  ; Paypal ;  Stripe</t>
-  </si>
-  <si>
     <t>Screenshot_2026-02-11-19-50-27-697.jpg</t>
   </si>
   <si>
@@ -322,9 +312,6 @@
     <t>MainWindow_with_balance_visiblility_on (Screenshot_2026-02-11-19-49-54-891.jpg) suite de la Section5 ( historique des  20 dernières transactions ) lorsque l'utilisateur scroll vers le bas avec Bouton de recherche qui redirige l'utilisateur vers TransactionsHistoryWindow</t>
   </si>
   <si>
-    <t>TransactionsHistoryWindow_for_MoneyTransfer</t>
-  </si>
-  <si>
     <t>TransactionsHistoryWindow qui affiche la liste complete de l'historique des toutes les transactions de l'utilisateur filtré sur les transferts d'argent (MoneyTransfer)
 Le bouton du Filtre est activé</t>
   </si>
@@ -333,9 +320,6 @@
 Même structure que TransactionsHistoryWindow mais le filtre 'Transfert' est surligné en bleu. 
 Liste affiche uniquement les transactions de type transfert. 
 Bouton retour, champ recherche, catégories visibles.</t>
-  </si>
-  <si>
-    <t>TransactionsHistoryWindow_for_Bills</t>
   </si>
   <si>
     <t>TransactionsHistoryWindow qui affiche la liste complete de l'historique des toutes les transactions de l'utilisateur filtré sur les Factures (Bills)
@@ -446,11 +430,6 @@
 - DeepseekRaw_App_Config_variable-Flutter :   Match the corresponding UI_img_name
 - DeepseekRaw_UI_Description-EyeView :  Match the corresponding
 - DeepseekRaw_App_Config_variable-EyeView :   Match the corresponding UI_img_name</t>
-  </si>
-  <si>
-    <t>- app: pinLength=4, pinKeyboardType=numeric, biometricAvailable=false
-- server: authEndpoint=C4/pin
-- utilisateur: userPIN (stocké localement)</t>
   </si>
   <si>
     <t>'- app: theme_color=white, biometric_supported=true_x000D_
@@ -482,14 +461,6 @@
     <t>MoneyTransfer_RecipientForm_ManualSelection</t>
   </si>
   <si>
-    <t>MoneyTransfer_RecipientForm_ScanQRCodeCard</t>
-  </si>
-  <si>
-    <t>Fenêtre de saisie du bénéficiaire pour un transfert d'argent  - 1- Section1 : Croix X en haut à gauche pour fermer cette fenetre et retourner vers la fenetre precedente
-2- Section2 :  (QR/Scanner) Stack avec BoxDecoration bleue, Container blanc pour QR code
-3- Section3 :  Toggles [bouton1: Scanner un code ;  bouton2: Ma carte / Mon QR code ]</t>
-  </si>
-  <si>
     <t>Même écran que Screenshot_2026-02-11-19-50-27-696.jpg mais avec filtre 'MoneyTransfer' actif. Implémentation Flutter : Le filtre est sélectionné et mis en évidence (couleur primaire). La liste affiche uniquement les transactions de type transfert. L'URL de l'API inclut le paramètre filter=MoneyTransfer.</t>
   </si>
   <si>
@@ -507,16 +478,6 @@
     <t>- app: balanceVisibility=false, hiddenBalanceChar='•', hiddenBalanceLength=8, transactionsPageSize=20
 - server: (identique à Screenshot_2026-02-11-19-50-26-695.jpg)
 - utilisateur: (identique à Screenshot_2026-02-11-19-50-26-695.jpg)</t>
-  </si>
-  <si>
-    <t>Fenêtre de saisie du bénéficiaire pour un transfert d'argent
-1- Section1 : Header avec titre "Envoyer de l'argent" et bouton de retour
-2- Section2 : Formulaire de saisie
-    - Champ "Nom du bénéficiaire" suivi du bouton de carnet d'adresses
-3- Section3 : Bouton circulaire (avec un signe + a l'interieur), suivi de texte "Saisir un nouveau numero" 
-4- Section4 : Bouton QR Code, suivi de texte "Scanner pour envoyer" 
-5- Section5 : Liste des destinataires frequent ou favoris"
-6- Section6 : Liste scrollable du repertoir telephonique ou carnet d'adresses</t>
   </si>
   <si>
     <t>Écran de saisie du bénéficiaire en Flutter. Structure :
@@ -529,15 +490,6 @@
   - HelperText sous le champ</t>
   </si>
   <si>
-    <t>Fenêtre de saisie du bénéficiaire pour un transfert d'argent
-1- Section1 : Header avec titre "Envoyer de l'argent" et bouton de retour
-2- Section2 : Formulaire de saisie
-    - Champ "Designation de la Transaction"
-    - Champ "Numéro du bénéficiaire" avec (precedé à gauche) un DropdownButton (selecteur) pour indicatif pays pré-selectionné (sur celui du pays de la localistaion de l'utilisateur) et decoré du drapeau du pays
-3- Section3 : Bouton "Continuer" en bas de l'écran (grisé tant que le champ est vide)
-4- Section4 : Message d'aide "Saisissez le numéro du destinataire"</t>
-  </si>
-  <si>
     <t>- UI_Description :   Match the corresponding UI_img_name
 - App_Config_variable : Need to be provided
 - DeepseekRaw_UI_Description-Flutter :  Need to be provided
@@ -562,31 +514,7 @@
 - DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
   </si>
   <si>
-    <t>Fenêtre de saisie du montant à transférer
-1- Section1 : Header avec titre "Envoyer de l'argent" et bouton de retour
-2- Section2 : Récapitulatif du bénéficiaire
-    - Nom du bénéficiaire et numéro (format +225 XX XX XX XX)
-3- Section3 : Zone de saisie du montant à envoyer
-    - Champ de saisie avec le symbole de la monnaie (FCFA) ; Titre du champ : "Montant Envoyé"
-    - Clavier numérique à l'écran
-4- Section4 : Zone de saisie du montant à recevoir
-    - Champ de saisie avec le symbole de la monnaie (FCFA) ; Titre du champ : "Montant Reçu"
-    - Clavier numérique à l'écran
-5- Section5 : Message d'information sur les frais éventuels
-6- Section6 : Bouton "Suivant" en bas (activé quand montant &gt;= minTransferAmount)</t>
-  </si>
-  <si>
     <t>Screenshot_2026-02-11-19-51-29-144.jpg</t>
-  </si>
-  <si>
-    <t>Fenetre de confirmation des détails du transfert
-1- Section1 : Header avec titre "Confirmer la Transaction" et bouton de retour
-2- Section2 : Récapitulatif détaillé
-    - Bénéficiaire : Nom et numéro complet
-    - Montant : Montant saisi + symbole monnaie
-    - Frais : Montant des frais
-    - Total : Montant total débité
-3- Section3 : Bouton "Confirmer" en bas</t>
   </si>
   <si>
     <t>Écran de confirmation. Structure :
@@ -606,13 +534,6 @@
     <t>QRCodeScanner</t>
   </si>
   <si>
-    <t>Fenêtre pour scanner un QR Code en utilisant l'appareil photo du telephone
-1- Section1 : Fenetre de capture/scan est transparente avec une opacité reduite
-2- Section2 : bouton Croix X en haut à gauche pour fermer cette fenetre et retourner vers la fenetre precedente ; bouton activation/desactivation de la torche en haut à droite
-3- Section3 : Box totalement transparent au centre pour capturer le QR Code
-4- Section4 : Message "Scanner un QR Code" en dessous de Box-Section3</t>
-  </si>
-  <si>
     <t>- app: theme_colors={white, dark_blue, grey}, active_filter=MoneyTransfer_x000D_
 - user: transactions=user.getFilteredTransactions('MoneyTransfer')_x000D_
 - server: api_endpoint=/api/transactions?filter=MoneyTransfer</t>
@@ -623,67 +544,460 @@
 - server: api_endpoint=/api/transactions?filter=Bills</t>
   </si>
   <si>
-    <t>Page acceuil
-- Sur chaque fenetre de l'app il ya un padding de 2px  entre le body de l'app et les bords du telephone
-1- Section1 : Header niveau1
-   1-a- Bouton de paramètre en haut à gauche (icon)
-   1-b- Bouton de selection du compte utilisateur
-2- Section2 : Header niveau2 en dessous de Section1
-     Montant du Solde est visible suivi du symbole de la monnaie suivi d'une icone pour activer ou desactiver la visibilité du Monant du solde
-3- Section3 : Box en dessous de Section2 et 
-     Box1 rectangulaire bleu avec à l'interieur box2 contenant en noir sur fond blanc, le userAppQRCode et le mot "Scanner" precedé d'une icone d'appreil photo
-4- Section4 : Box en dessous de Section3
-     Boutons des Top7 services phares (featured_services) + Bouton voir plus, listés en ligne. 4 Boutons par ligne
-     Chaque bouton est une icone circulaire avec le nom du service en dessous
-5- Section5 : Box en dessous de Section4
-     Liste l'historique des 20 dernières transactions
-     Chaque ligne de transaction contient : 
-         - Sous-ligne1: 
-                -- (Aligner à gauche)  Nom du destinaire suivi de son numero (account_id)
-                -- (Aligner à droite)  Montant de la transaction suivi du symbole de la monnaie
-         - Sous-ligne2: 
-               -- (Aligner à gauche)  Date et Heure sous le format (11 fevr. 2026, 19:16)</t>
-  </si>
-  <si>
     <t>- app: defaultPadding=2.0, balanceVisibility=true, servicesPerRow=4, transactionDateFormat='dd MMM yyyy, HH:mm'
 - server: userBalanceEndpoint=/api/user/balance, userProfileEndpoint=/api/user/profile, top7FeaturedServicesEndpoint=/api/services/featured/7, lastTransactionsEndpoint=/api/transactions/last/20
 - utilisateur: user.user_profil.balance, user.user_profil.currency, user.user_profil.getTop7FavoriteServices, user.user_profil.getLast20Transactions</t>
   </si>
   <si>
-    <t>Fenetre qui affiche la liste complete de l'historique des toutes les transactions de l'utilisateur lorsqu'il clique sur le bouton de recherche dans MainWindow_TransactionsHistory-Section5
-1- Section1 : Header niveau1 
-     Box Header avec titre "Envoyer de l'argent" et bouton de retour
-2- Section2 : Box en dessous de Section2 et 
-     Searchbox ou champ de recherche
-3- Section3 : Box en dessous de Section2
-     Boutons de filtre des produits ou services listés en ligne
-4- Section4 : Box en dessous de Section3
-     Liste l'historique des transactions
-     Chaque ligne de transaction contient : 
-         - Sous-ligne1: 
-                -- (Aligner à gauche)  Nom du destinaire suivi de son numero (account_id)
-                -- (Aligner à droite)  Montant de la transaction suivi du symbole de la monnaie
-         - Sous-ligne2: 
-               -- (Aligner à gauche)  Date et Heure sous le format (11 fevr. 2026, 19:16)</t>
-  </si>
-  <si>
-    <t>Similaire à Screenshot_2026-02-11-19-52-13-105.jpg
-Fenêtre pour scanner un QR Code en utilisant l'appareil photo du telephone
-1- Section1 : Fenetre de capture/scan est transparente avec une opacité reduite
-2- Section2 : bouton Croix X en haut à gauche pour fermer cette fenetre et retourner vers la fenetre precedente ; bouton activation/desactivation de la torche en haut à droite
-3- Section3 : Box totalement transparent au centre pour capturer le QR Code
-4- Section4 : Message "Scanner un QR Code" en dessous de Box-Section3</t>
-  </si>
-  <si>
     <t>Similaire à Screenshot_2026-02-11-19-52-13-105.jpg</t>
   </si>
   <si>
     <t>More_Services_to_Pay_for</t>
   </si>
   <si>
+    <t>Window_background_color = white
+Window_text_color = black
+1- Section1 : 
+    Bouton background color = section1_ Bouton_background_color = white 
+    Bouton Text color = section1_ Bouton_Text_color = dark blue
+2- Section2 :
+    Text color = section2_ Text_color = white
+    Icon color = section1_ Icon_color = white
+    montant du solde = user.user_profil.balance
+    symbole de la monnaie = user.user_profil.curreny
+3- Section3 : 
+    Box1 background color = section3_ Box1_background_color = blue
+    Box1 background image = section3_ Box1_background_image = "/storage/img/ui/customer_card.png"
+    Box2 background image = section3_ Box2_background_image = "/storage/img/qr_code/profil/qr_code-n.png"
+    Box2 text color = section3_ Box2_Text_color = black
+4- Section4 : 
+    Box background color = section4_ Box_background_color = white
+    Text color = section4_ Text_color = black
+    Icon-n background image = section4_ Icon-n_background_image = "/storage/img/ui/Icon-n.png"
+5- Section5 :
+    Box background color = section5_ Box_background_color = white
+    Sous-ligne1 Text color = section5_ Text_color = dark blue
+    Sous-ligne2 Text color = section5_ Text_color = grey
+    liste de l'historique des transactions = user.user_profil.getLast20Transactions</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+userPIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window_background_color = white
+Window_text_color = black
+</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+activeFilter = MoneyTransfer</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+activeFilter = Bills</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+'- app: phoneValidationRegex='^[0-9]{8,15}$', defaultCountryCode='+225', enableContactsPicker=true
+- server: validateRecipientEndpoint=/api/recipient/validate?phone={phone}
+- utilisateur: recipientPhone, countryCode</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+recipientPhone
+countryCode</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+transferAmount
+recipientInfo
+feesAmount
+minTransferAmount</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+transferAmount
+fees
+totalAmount
+recipientDetails</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+2- Section2 : 
+button color = white
+4- Section4 : 
+Box background color = grey; 
+Box text color = white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Écran d'historique complet des transactions en Flutter. Structure :
+  - AppBar avec titre 'Paiements' et bouton retour
+  - SearchBar avec TextField et icône de recherche
+  - Section filtres : Wrap ou SingleChildScrollView horizontal avec des boutons filtres (Transfert d'unité et Souscription, Transfert d'argent, Facture, Shopping, Tourisme)
+  - Liste paginée : ListView.builder avec rafraîchissement (RefreshIndicator) et pagination infinie
+</t>
+  </si>
+  <si>
+    <t>- app: transactionsPageSize=20, searchDebounceTime=500, filterChipsEnabled=true
+- server: allservicesCategoryEndpoint=/api/servicesCategory/all?page={page}&amp;limit=20, 
+allCategoryOfPaymentServiceProviderEndpoint=/api/categoryOfPaymentServiceProvider/all?page={page}&amp;limit=20, 
+allPaymentServiceProviderEndpoint=/api/paymentServiceProvider/all?page={page}&amp;limit=20, 
+allTransactionsEndpoint=/api/transactions/all?page={page}&amp;limit=20, searchTransactionsEndpoint=/api/transactions/search?q={query}, filterTransactionsEndpoint=/api/transactions/filter?category={category}
+- utilisateur: user.user_profil.getAllTransactions_PaginateInterval20, user.user_profil.getAllServices, user.user_profil.getAllCategoryOfPaymentServiceProvider, user.user_profil.getAllPaymentServiceProviderByCategory</t>
+  </si>
+  <si>
+    <t>- app: transactionsPageSize=20, searchDebounceTime=500, filterChipsEnabled=true
+- server: 
+allservicesCategoryEndpoint=/api/servicesCategory/all?page={page}&amp;limit=20, 
+allCategoryOfPaymentServiceProviderEndpoint=/api/categoryOfPaymentServiceProvider/all?page={page}&amp;limit=20, 
+allPaymentServiceProviderEndpoint=/api/paymentServiceProvider/all?page={page}&amp;limit=20, 
+allTransactionsEndpoint=/api/transactions/all?page={page}&amp;limit=20, searchTransactionsEndpoint=/api/transactions/search?q={query}, filterTransactionsEndpoint=/api/transactions/filter?category={category}
+- utilisateur: user.user_profil.getAllTransactions_PaginateInterval20, user.user_profil.getAllProducts_Services, user.user_profil.getAllCategoryOfPaymentServiceProvider, user.user_profil.getAllPaymentServiceProviderByCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window_background_color = white
+Window_text_color = black
+'- app: transactionsPageSize=20, searchDebounceTime=500, filterChipsEnabled=true
+- server: 
+top7FeaturedServicesEndpoint=/api/services/featured/7, 
+allservicesCategoryEndpoint=/api/servicesCategory/all?page={page}&amp;limit=20, 
+allServicesByCategoryEndpoint=/api/servicesByCategory/all?page={page}&amp;limit=20, 
+allCategoryOfPaymentServiceProviderEndpoint=/api/categoryOfPaymentServiceProvider/all?page={page}&amp;limit=20, 
+allPaymentServiceProviderEndpoint=/api/paymentServiceProvider/all?page={page}&amp;limit=20, 
+searchServicesEndpoint=/api/services/search?q={query}, filterServicesEndpoint=/api/services/filter?servicesCategory={servicesCategory}
+- utilisateur: user.user_profil.getAllServices_PaginateInterval20, user.user_profil.getAllServices, user.user_profil.getTop7FavoriteServices, user.user_profil.getAllCategoryOfPaymentServiceProvider, user.user_profil.getAllPaymentServiceProviderByCategory
+</t>
+  </si>
+  <si>
+    <t>- UI_Description : Match the corresponding UI_img_name
+- App_Config_variable :  Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
+- DeepseekRaw_App_Config_variable-Flutter :  Match the corresponding UI_img_name
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>- UI_Description :  Match the corresponding UI_img_name
+- App_Config_variable :   Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
+- DeepseekRaw_App_Config_variable-Flutter : Good and Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>- UI_Description :   Need to be updated and improved as much as possible
+- App_Config_variable :   Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter :   Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter :   Need to be provided
+- DeepseekRaw_UI_Description-EyeView :   Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView :   Need to be provided</t>
+  </si>
+  <si>
+    <t>- UI_Description : Match the corresponding UI_img_name
+- App_Config_variable : Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
+- DeepseekRaw_App_Config_variable-Flutter : Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-20-01-54-347.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-20-01-54-348.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-20-01-54-349.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-20-01-54-350.jpg</t>
+  </si>
+  <si>
+    <t>- UI_Description : Need to be provided
+- App_Config_variable : Need to be provided
+- DeepseekRaw_UI_Description-Flutter : Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter : Need to be provided
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>Window_background_color = white
+Window_text_color = black
+transactionId
+transferAmount
+recipientName
+receiptURL
+- app: successAnimationDuration=2000, autoRedirectDelay=5000, shareReceiptEnabled=true
+- server: transactionDetailsEndpoint=/api/transaction/{id}
+- utilisateur: transactionId, transferAmount, recipientName, receiptURL</t>
+  </si>
+  <si>
+    <t>Écran de succès. Structure :
+  - AppBar avec titre 'Traitmentde de la transaction'
+  - Icône Icons.check_circle (couleur verte, taille 80)
+  - Texte de status : Operation1 (cercle loader qui se transforme en green check sur notification push venant du server) 
+  - Texte de status : Operation2 (cercle loader qui se transforme en green check sur notification push venant du server) 
+  - Deux boutons horizontaux (OutlinedButton et ElevatedButton)
+  - Bouton de partage (IconButton) pour le reçu</t>
+  </si>
+  <si>
+    <t>- UI_Description : Match the desired UI
+- App_Config_variable :  Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
+- DeepseekRaw_App_Config_variable-Flutter :  Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-EyeView :  Need to be updated and improved as much as possible
+- DeepseekRaw_App_Config_variable-EyeView :  Need to be updated and improved as much as possible</t>
+  </si>
+  <si>
+    <t>BankCard_Manamgement_Window</t>
+  </si>
+  <si>
+    <t>BankCard_Deposit</t>
+  </si>
+  <si>
+    <t>Forex_Conversion</t>
+  </si>
+  <si>
+    <t>BankCard_Locking</t>
+  </si>
+  <si>
+    <t>BankCard_Deletion</t>
+  </si>
+  <si>
+    <t>Besoin de créer un UI pour cettre fenetre</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-891.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-892.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-54-891.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-25-695.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-26-695.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-695.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-696.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-697.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-698.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-891.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-42-139.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-00-818.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-28-144.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-29-144.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-52-13-105.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-52-14-105.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-285.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-346.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-347.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-348.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-349.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-350.jpg</t>
+  </si>
+  <si>
+    <t>app: theme_colors={background : white, text-color : black}_x000D_
+user: 
+settings_options=[Profil, Compte, Langue, Partage, Support, Sécurité, Deconnexion]_x000D_
+server: api_endpoint=/api/user/settings</t>
+  </si>
+  <si>
+    <t>- UI_Description : Match the corresponding UI_img_name
+- App_Config_variable : Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter : Need to be provided
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>SettingsWindow</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-54-890.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-001.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-002.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-003.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-004.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-005.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-006.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-007.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-008.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-009.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-010.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-49-53-011.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-002.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-003.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-004.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-005.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-006.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-007.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-008.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-009.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-010.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-53-011.jpg</t>
+  </si>
+  <si>
+    <t>- UI_Description :  Need to be provided
+- App_Config_variable :  Need to be provided
+- DeepseekRaw_UI_Description-Flutter : Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter : Need to be provided
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>SettingsWindow_AddNewAccount</t>
+  </si>
+  <si>
+    <t>SettingsWindow_InviteFriend</t>
+  </si>
+  <si>
+    <t>SettingsWindow_UsePromoCode</t>
+  </si>
+  <si>
+    <t>SettingsWindow_ContactCustomerService</t>
+  </si>
+  <si>
+    <t>SettingsWindow_NearbyAgent_GPS_Permission1</t>
+  </si>
+  <si>
+    <t>SettingsWindow_NearbyAgent_GPS_Permission2</t>
+  </si>
+  <si>
+    <t>SettingsWindow_NearbyAgent_Results</t>
+  </si>
+  <si>
+    <t>SettingsWindow_ConnectedDevices</t>
+  </si>
+  <si>
+    <t>SettingsWindow_SecurityPIN_Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si l'autorisation est donnée dès cette fenetre, 
+   alors cette fenetre redirige vers Screenshot_2026-02-11-19-49-53-009.jpg
+Si l'autorisation n'est pas donnée dès cette fenetre, 
+   alors cette fenetre redirige vers Screenshot_2026-02-11-19-49-53-008.jpg
+</t>
+  </si>
+  <si>
+    <t>Si l'autorisation est donnée dès cette fenetre, 
+   alors cette fenetre redirige vers Screenshot_2026-02-11-19-49-53-009.jpg</t>
+  </si>
+  <si>
+    <t>Menu paramètres. 
+En-tête avec bouton retour et titre 'Paramètres'. 
+Liste d'options: 'Profil', 'Sécurité', 'Notifications', 'Apparence', 'Langue', 'Aide', 'À propos'. 
+Icônes à gauche de chaque option. 
+Fond blanc, texte noir.
+Menu paramètres. 
+1- Section1 : Header avec titre "Paramètres" et précédé d'un bouton de retour
+2- Section2 : Titre de la section "Compte"
+     Sous-fontion1 : Ajouter un autre compte et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-002.jpg
+3- Section3 : Titre de la section "Patager"
+     Sous-fontion1 : Inviter un ami à rejoindre TipTop Transfer  et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-003.jpg
+     Sous-fontion2 : Utiliser un code promo et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-004.jpg
+4- Section4 : Titre de la section "Support"
+     Sous-fontion1 : Contacter le service client et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-005.jpg
+     Sous-fontion2 : Verifier mon platfond et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-006.jpg
+     Sous-fontion3 : Trouver les agents à proximité et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-007.jpg ; ou  ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-008.jpg
+5- Section5 : Titre de la section "Sécurité"
+     Sous-fontion1 : Mes appareils connectés et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-010.jpg
+     Sous-fontion2 : Modifier mon code secret et précédé d'une icone de compte ; ce bouton redirige vers Screenshot_2026-02-11-19-49-53-011.jpg
+6- Section6 : Box avec Titre de la section "Se deconnecter (+xxx xx xx xx xx xx)" et précédé d'une icone de deconnexion</t>
+  </si>
+  <si>
     <t>Fenêtre de sélection de catégorie de factures
-1- Section1 : Header niveau1 
-     Box Header avec titre "Paiements" et bouton de retour
+1- Section1 : Header avec titre "Paiements" et précédé d'un bouton de retour
 2- Section2 : Box en dessous de Section2 et 
      Searchbox ou champ de recherche
 3- Section3 : Box en dessous de Section2
@@ -721,102 +1035,296 @@
     - Scolarité avec icône</t>
   </si>
   <si>
-    <t>Window_background_color = white
-Window_text_color = black
-1- Section1 : 
-    Bouton background color = section1_ Bouton_background_color = white 
-    Bouton Text color = section1_ Bouton_Text_color = dark blue
+    <t>1- Section1 : Header avec titre "Ajouter un autre compte" et précédé d'un bouton de retour
+-Slection de l'indication telephonique decoré de drapeau du pays; suivi de ; Champ de Saisie du numero du compte</t>
+  </si>
+  <si>
+    <t>Message d'invitation = {
+Je t'invite à découvrir l'application TipTop Transfer! Inscris-toi puis envoie et recoit de l'argent vers tous les services de paiment (Mobile money, Carte Visa, Mastercard , Paypal, etc ...) pour seulement 1% depuis ton smartphone! Disponible au lien suivant:
+https://ci.mmapp.tiptoptransfer.com/web/referrals/c/1U2OI
+}</t>
+  </si>
+  <si>
+    <t>Partage de message d'invitation
+Message d'invitation = {
+Je t'invite à découvrir l'application Wave! Inscris-toi et envoie de l'argent pour seulement 1% depuis ton smartphone! Disponible au lien suivant:
+https://ci.mmapp.wave.com/web/referrals/c/1U2OI
+}</t>
+  </si>
+  <si>
+    <t>- app: 
+- server: 
+invitationMessageEndpoint=/api/user/invitationMessage?phoneOfFriend={phone},appUsedForInvitation={whatsapp or direct message}
+inviteFriendEndpoint=/api/user/invite?phoneOfFriend={phone},appUsedForInvitation={whatsapp or direct message}
+- utilisateur: referralCode='1U2OI'</t>
+  </si>
+  <si>
+    <t>Fenetre d'Authentication par code PIN avec bouton de suppression pour les telephones qui n'ont pas les capacités suivantes : empreinte digitale ; reconnaissance faciale
+Sur validation,  ; cette fenetre redirige vers Screenshot_2026-02-11-19-49-54-891.jpg</t>
+  </si>
+  <si>
+    <t>Fenetre d'Authentication par code PIN avec bouton de scan d'empreinte digitale ou bouton de scan faciale pour les telephones qui ont les capacités suivantes : empreinte digitale ; reconnaissance faciale
+Sur validation,  ; cette fenetre redirige vers Screenshot_2026-02-11-19-49-54-891.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-20-12-54-806.jpg</t>
+  </si>
+  <si>
+    <t>QRCodeScanner-OR-MyQRCodeCard</t>
+  </si>
+  <si>
+    <t>Fenêtre à 2 options (Affiche par defaut Option1)
+Option1 : pour scanner un QR Code en utilisant l'appareil photo du telephone
+Option2 : Afficher la Carte QR Code de l'utilisateur
+1- Section1 : Fenetre de capture/scan est transparente avec une opacité reduite
+2- Section2 : bouton Croix X en haut à gauche pour fermer cette fenetre et retourner vers la fenetre precedente ; bouton activation/desactivation de la torche en haut à droite
+3- Section3 : Box totalement transparent au centre pour capturer le QR Code
+4- Section4 : Message "Scanner un QR Code" en dessous de Box-Section3
+5- Section5 : Toggle button QRCodeScanner-OR-MyQRCodeCard {Button1 : QRCodeScanner; Button2: MyQRCodeCard}
+QRCodeScanner : ce bouton affiche vers Screenshot_2026-02-11-19-52-14-105.jpg ; tout en maintenant le Toggle button QRCodeScanner-OR-MyQRCodeCard en dessous
+MyQRCodeCard : ce bouton affiche vers Screenshot_2026-02-11-19-50-27-891.jpgToggle button QRCodeScanner-OR-MyQRCodeCard en dessous</t>
+  </si>
+  <si>
+    <t>- UI_Description : Match the corresponding UI_img_name
+- App_Config_variable : Need to be provided
+- DeepseekRaw_UI_Description-Flutter : Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter : Need to be provided
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>MyQRCodeCard</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-12-54-806.jpg</t>
+  </si>
+  <si>
+    <t>VerifyTransactionCeiling</t>
+  </si>
+  <si>
+    <t>Fenetre qui affiche la liste d'agent
+1- Section1 : Header avec titre "Trouver un agent" et précédé d'un bouton de retour
+2- Section2 : Box en dessous de Section1
+     Liste des agents
+     Chaque ligne de transaction contient : 
+         - Sous-ligne1: 
+                -- (Aligner à gauche)  Nom de l'agent (agent_id)
+         - Sous-ligne2: 
+                -- (Aligner à gauche)  Adresse de l'agent
+                -- (Aligner à gauche)  Distance (entre utilisateur de agent)
+               -- (Aligner à gauche)  Icon ou bouton d'itinieraire ; lorsque l'utilisateur clique sur ce bouton, ce bouton redirige l'utilisateur sur Google map avec l'itineraire de la localisation de l'Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Section2 :
+    Box background color = section2_ Box_background_color = white
+    Sous-ligne1 Text color = section2_ Text_color = black
+    Sous-ligne2 Text color = grey
+    liste des agent proche dans un rayon 1km = user.user_profil.getAllNearbyAgent
+'- app: 
+        defaultRaduisForNearbyAgent=1000, 
+       defaultRaduisForNearbyAgent_Unit=meter, 
+       defaultRaduisForNearbyAgent_Unit_Short=m
+- server: getAllNearbyAgentEndpoint=/api/getAllNearbyAgent?radius={app.defaultRaduisForNearbyAgent}&amp;limit=10
+- utilisateur: </t>
+  </si>
+  <si>
+    <t>- UI_Description :  Need to be provided
+- App_Config_variable :   Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter : Need to be provided
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>- app: 
+      pinLength=4, 
+      pinKeyboardType=numeric, 
+      biometricAvailable=false
+- server: 
+      authEndpoint=userAuth/oldUserPIN
+      updatePINEndpoint=updatePIN/newUserPIN
+- utilisateur: oldUserPIN (stocké localement)</t>
+  </si>
+  <si>
+    <t>- app: 
+       pinLength=4, 
+       pinKeyboardType=numeric, 
+       biometricAvailable=false
+- server: 
+       authEndpoint=userAuth/pin
+- utilisateur: 
+       userPIN (stocké localement)</t>
+  </si>
+  <si>
+    <t>Fenetre qui affiche la liste d'appareils connectés
+1- Section1 : Header avec titre "Mes appareils connectés" et précédé d'un bouton de retour
+2- Section2 : Box en dessous de Section1
+     Text "Limiter le compte à ce appareil" , suivi d'un bouton radio (descativé par defaut)
+3- Section3 : Box en dessous de Section2
+     Text d'information "Si vous limitez votre compte TipTop Transfer à cet appareil, vous serz deconnecté de tous les autres appareils auxquels vous êtes actuellement connecté" 
+4- Section4 : Box en dessous de Section3
+     Liste des appareils connectés par ordre de date de dernière activité
+     Chaque ligne d'appareil contient : 
+         - (Aligner à gauche) Icone de telephone dans un cercle (avec sticker en bas à droite , pour l'appareil actuel)
+         - (Aligner à gauche)  Information de telephone 
+                -- ligne1: Modèle du téléphone
+                -- sous-ligne: Information sur la dernière activité
+                     Ex de formation de l'info: Dernier activité, 13 Oct 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wndow background_color = gray
 2- Section2 :
-    Text color = section2_ Text_color = white
-    Icon color = section1_ Icon_color = white
-    montant du solde = user.user_profil.balance
-    symbole de la monnaie = user.user_profil.curreny
-3- Section3 : 
-    Box1 background color = section3_ Box1_background_color = blue
-    Box1 background image = section3_ Box1_background_image = "/storage/img/ui/customer_card.png"
-    Box2 background image = section3_ Box2_background_image = "/storage/img/qr_code/profil/qr_code-n.png"
-    Box2 text color = section3_ Box2_Text_color = black
-4- Section4 : 
-    Box background color = section4_ Box_background_color = white
-    Text color = section4_ Text_color = black
-    Icon-n background image = section4_ Icon-n_background_image = "/storage/img/ui/Icon-n.png"
-5- Section5 :
-    Box background color = section5_ Box_background_color = white
-    Sous-ligne1 Text color = section5_ Text_color = dark blue
-    Sous-ligne2 Text color = section5_ Text_color = grey
-    liste de l'historique des transactions = user.user_profil.getLast20Transactions</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-userPIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Window_background_color = white
-Window_text_color = black
-</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-activeFilter = MoneyTransfer</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-activeFilter = Bills</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-'- app: phoneValidationRegex='^[0-9]{8,15}$', defaultCountryCode='+225', enableContactsPicker=true
-- server: validateRecipientEndpoint=/api/recipient/validate?phone={phone}
-- utilisateur: recipientPhone, countryCode</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-recipientPhone
-countryCode</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-transferAmount
-recipientInfo
-feesAmount
-minTransferAmount</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-transferAmount
-fees
-totalAmount
-recipientDetails</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-2- Section2 : 
-button color = white
-4- Section4 : 
-Box background color = grey; 
-Box text color = white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Écran d'historique complet des transactions en Flutter. Structure :
-  - AppBar avec titre 'Paiements' et bouton retour
-  - SearchBar avec TextField et icône de recherche
-  - Section filtres : Wrap ou SingleChildScrollView horizontal avec des boutons filtres (Transfert d'unité et Souscription, Transfert d'argent, Facture, Shopping, Tourisme)
-  - Liste paginée : ListView.builder avec rafraîchissement (RefreshIndicator) et pagination infinie
-</t>
+    Box background color = section2_ Box_background_color = white ; 
+   Text color = section2_ Text_color = black
+3- Section3 :
+    Box background color = section3_ Box_background_color = white ; 
+   Text color = section2_ Text_color = black
+- app: 
+- server: getAllConnectedDevicesEndpoint=/api/user/getAllConnectedDevices
+- utilisateur: </t>
+  </si>
+  <si>
+    <t>- UI_Description :   Match the corresponding UI_img_name
+- App_Config_variable :   Need to be updated and improved as much as possible
+- DeepseekRaw_UI_Description-Flutter : Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter : Need to be provided
+- DeepseekRaw_UI_Description-EyeView : Need to be provided
+- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
+  </si>
+  <si>
+    <t>Fenetre d'Authentication par code PIN avec bouton de suppression
+1- Etape1: Verification de l'ancien PIN (oldUserPIN) ; Sur validation de oldUserPIN,  cette fenetre redirige vers une nouvelle fenetre similaire pour enregistrer le nouveau PIN
+2- Etape2: L'utilisateur est redirigé sur une fenetre nouvelle similaire pour enregistrer le nouveau PIN (newUserPIN)
+3- Etape3: L'utilisateur est redirigé sur une fenetre nouvelle similaire pour confirmer le nouveau PIN (newUserPIN)
+4- Etape4: Sur validaion du nouveau PNI, L'utilisateur est redirigé vers Screenshot_2026-02-11-19-49-54-891.jpg</t>
+  </si>
+  <si>
+    <t>Page acceuil
+- Sur chaque fenetre de l'app il ya un padding de 2px  entre le body de l'app et les bords du telephone
+1- Section1 : Header niveau1
+   1-a- Bouton de paramètre en haut à gauche (icon)
+   1-b- Bouton de selection du compte utilisateur
+2- Section2 : Header niveau2 en dessous de Section1
+     Montant du Solde est visible suivi du symbole de la monnaie suivi d'une icone / bouton (balanceVisibility) pour activer ou desactiver la visibilité du Monant du solde
+     Illustration de bouton balanceVisibility desactivé =  MainWindow_with_balance_visiblility_off (Screenshot_2026-02-11-19-50-25-695.jpg)
+3- Section3 : Box en dessous de Section2 et 
+     Box1 rectangulaire bleu avec à l'interieur box2 contenant en noir sur fond blanc, le userAppQRCode et le mot "Scanner" precedé d'une icone d'appreil photo  ; ce bouton redirige vers Screenshot_2026-02-11-20-12-54-806.jpg
+4- Section4 : Box en dessous de Section3
+     Boutons des Top7 services phares (featured_services) + Bouton voir plus, listés en ligne. 4 Boutons par ligne
+     Chaque bouton est une icone circulaire avec le nom du service en dessous
+     Ex:
+          -- Transfert : ce bouton redirige vers Screenshot_2026-02-11-19-50-42-139.jpg
+          -- Paiements : ce bouton redirige vers Screenshot_2026-02-11-19-53-57-285.jpg
+          -- Cartes : ce bouton redirige vers Screenshot_2026-02-11-20-01-54-346.jpg
+5- Section5 : Box en dessous de Section4
+     Liste l'historique des 20 dernières transactions
+     Chaque ligne de transaction contient : 
+         - Sous-ligne1: 
+                -- (Aligner à gauche)  Nom du destinaire suivi de son numero (account_id)
+                -- (Aligner à droite)  Montant de la transaction suivi du symbole de la monnaie
+         - Sous-ligne2: 
+               -- (Aligner à gauche)  Date et Heure sous le format (11 fevr. 2026, 19:16)</t>
+  </si>
+  <si>
+    <t>TransactionsHistoryWindow_filteredOn_MoneyTransfer</t>
+  </si>
+  <si>
+    <t>TransactionsHistoryWindow_filteredOn_Bills</t>
+  </si>
+  <si>
+    <t>Fenêtre de saisie du bénéficiaire pour un transfert d'argent  - 1- Section1 : Croix X en haut à gauche pour fermer cette fenetre et retourner vers la fenetre precedente
+2- Section2 :  QR Code Box (fond blanc/noir) avec Box externe BoxDecoration bleue, Container blanc pour QR code
+3- Section3 :  Toggles [bouton1: Scanner un code ;  bouton2: Ma carte / Mon QR code ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenêtre de saisie du bénéficiaire pour un transfert d'argent
+1- Section1 : Header avec titre "Envoyer de l'argent" et précédé d'un bouton de retour
+2- Section2 : Formulaire de saisie
+    - Champ "Nom du bénéficiaire" suivi du bouton de carnet d'adresses
+3- Section3 : Bouton circulaire (avec un signe + a l'interieur), suivi de texte "Saisir un nouveau numero" ;  ce bouton redirige vers Screenshot_2026-02-11-19-51-00-818.jpg
+4- Section4 : Bouton QR Code, suivi de texte "Scanner pour envoyer" ;  ce bouton redirige vers Screenshot_2026-02-11-19-52-14-105.jpg
+5- Section5 : Liste des destinataires frequent ou favoris"
+        -- Sur clique d'un contact, l'utilisateur est redirigé est sur Screenshot_2026-02-11-19-51-28-144.jpg 
+6- Section6 : Liste scrollable du repertoir telephonique ou carnet d'adresses
+        -- Sur clique d'un contact, l'utilisateur est redirigé est sur Screenshot_2026-02-11-19-51-28-144.jpg </t>
+  </si>
+  <si>
+    <t>Fenêtre de saisie du bénéficiaire pour un transfert d'argent
+1- Section1 : Header avec titre "Envoyer de l'argent" et précédé d'un bouton de retour
+2- Section2 : Formulaire de saisie
+    - Champ "Designation de la Transaction"
+    - Champ "Numéro du bénéficiaire" avec (precedé à gauche) un DropdownButton (selecteur) pour indicatif pays pré-selectionné (sur celui du pays de la localistaion de l'utilisateur) et decoré du drapeau du pays
+3- Section3 : Bouton "Continuer" en bas de l'écran (grisé tant que le champ est 
+        -- Sur clique de validation, l'utilisateur est redirigé est sur Screenshot_2026-02-11-19-51-28-144.jpg 
+4- Section4 : Message d'aide "Saisissez le numéro du destinataire"</t>
+  </si>
+  <si>
+    <t>Fenêtre de saisie du montant à transférer
+1- Section1 : Header avec titre "Envoyer de l'argent" et précédé d'un bouton de retour
+2- Section2 : Récapitulatif du bénéficiaire
+    - Nom du bénéficiaire et numéro (format +225 XX XX XX XX)
+3- Section3 : Zone de saisie du montant à envoyer
+    - Champ de saisie avec le symbole de la monnaie (FCFA) ; Titre du champ : "Montant Envoyé"
+    - Clavier numérique à l'écran
+4- Section4 : Zone de saisie du montant à recevoir
+    - Champ de saisie avec le symbole de la monnaie (FCFA) ; Titre du champ : "Montant Reçu"
+    - Clavier numérique à l'écran
+5- Section5 : Message d'information sur les frais éventuels
+6- Section6 : Bouton "Suivant" en bas (activé quand montant &gt;= minTransferAmount)
+        -- Sur clique de validation, la fenetre ou modal de confirmation apparait , voir Screenshot_2026-02-11-19-51-29-144.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenêtre pour scanner un QR Code en utilisant l'appareil photo du telephone
+1- Section1 : Fenetre de capture/scan est transparente avec une opacité reduite
+2- Section2 : bouton Croix X en haut à gauche pour fermer cette fenetre et retourner vers la fenetre precedente ; bouton activation/desactivation de la torche en haut à droite
+3- Section3 : Box totalement transparent au centre pour capturer le QR Code
+4- Section4 : Message "Scanner un QR Code" en dessous de Box-Section3
+ -- Sur presentation et scan d'un QR Code valide, l'utilisateur est redirigé est sur Screenshot_2026-02-11-19-51-28-144.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similaire à Screenshot_2026-02-11-19-52-13-105.jpg
+Fenêtre pour scanner un QR Code en utilisant l'appareil photo du telephone
+1- Section1 : Fenetre de capture/scan est transparente avec une opacité reduite
+2- Section2 : bouton Croix X en haut à gauche pour fermer cette fenetre et retourner vers la fenetre precedente ; bouton activation/desactivation de la torche en haut à droite
+3- Section3 : Box totalement transparent au centre pour capturer le QR Code
+4- Section4 : Message "Scanner un QR Code" en dessous de Box-Section3
+ -- Sur presentation et scan d'un QR Code valide, l'utilisateur est redirigé est sur Screenshot_2026-02-11-19-51-28-144.jpg </t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-50-27-699.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-50-27-700.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-53-57-286.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-53-57-287.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot_2026-02-11-19-53-57-288.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-699.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-700.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-286.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-287.jpg</t>
+  </si>
+  <si>
+    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-288.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">
 3- Section3 :
     liste des produits ou services = user.user_profil.getAllservicesCategory
-     ex  liste des produits ou services : Achat, Transfer
+     ex  liste des  des categories ou le types de transactions (produits ou services) : Achat, Transfer
     liste categories des paymentServiceProvider = user.user_profil.getAllCategoryOfPaymentServiceProvider
      ex  liste categories des paymentServiceProvider : Mobile Money, compte_de_rechargement GSM ou Carrier_Bill, visa, mastercard, paypal
     liste des paymentServiceProvider et leurs categories  = user.user_profil.getAllPaymentServiceProviderByCategory
@@ -827,231 +1335,125 @@
     liste de l'historique des transactions = user.user_profil.getAllTransactions_PaginateInterval20</t>
   </si>
   <si>
-    <t>- app: transactionsPageSize=20, searchDebounceTime=500, filterChipsEnabled=true
-- server: allservicesCategoryEndpoint=/api/servicesCategory/all?page={page}&amp;limit=20, 
-allCategoryOfPaymentServiceProviderEndpoint=/api/categoryOfPaymentServiceProvider/all?page={page}&amp;limit=20, 
-allPaymentServiceProviderEndpoint=/api/paymentServiceProvider/all?page={page}&amp;limit=20, 
-allTransactionsEndpoint=/api/transactions/all?page={page}&amp;limit=20, searchTransactionsEndpoint=/api/transactions/search?q={query}, filterTransactionsEndpoint=/api/transactions/filter?category={category}
-- utilisateur: user.user_profil.getAllTransactions_PaginateInterval20, user.user_profil.getAllServices, user.user_profil.getAllCategoryOfPaymentServiceProvider, user.user_profil.getAllPaymentServiceProviderByCategory</t>
-  </si>
-  <si>
-    <t>- app: transactionsPageSize=20, searchDebounceTime=500, filterChipsEnabled=true
-- server: 
-allservicesCategoryEndpoint=/api/servicesCategory/all?page={page}&amp;limit=20, 
-allCategoryOfPaymentServiceProviderEndpoint=/api/categoryOfPaymentServiceProvider/all?page={page}&amp;limit=20, 
-allPaymentServiceProviderEndpoint=/api/paymentServiceProvider/all?page={page}&amp;limit=20, 
-allTransactionsEndpoint=/api/transactions/all?page={page}&amp;limit=20, searchTransactionsEndpoint=/api/transactions/search?q={query}, filterTransactionsEndpoint=/api/transactions/filter?category={category}
-- utilisateur: user.user_profil.getAllTransactions_PaginateInterval20, user.user_profil.getAllProducts_Services, user.user_profil.getAllCategoryOfPaymentServiceProvider, user.user_profil.getAllPaymentServiceProviderByCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Window_background_color = white
-Window_text_color = black
-'- app: transactionsPageSize=20, searchDebounceTime=500, filterChipsEnabled=true
-- server: 
-top7FeaturedServicesEndpoint=/api/services/featured/7, 
-allservicesCategoryEndpoint=/api/servicesCategory/all?page={page}&amp;limit=20, 
-allServicesByCategoryEndpoint=/api/servicesByCategory/all?page={page}&amp;limit=20, 
-allCategoryOfPaymentServiceProviderEndpoint=/api/categoryOfPaymentServiceProvider/all?page={page}&amp;limit=20, 
-allPaymentServiceProviderEndpoint=/api/paymentServiceProvider/all?page={page}&amp;limit=20, 
-searchServicesEndpoint=/api/services/search?q={query}, filterServicesEndpoint=/api/services/filter?servicesCategory={servicesCategory}
-- utilisateur: user.user_profil.getAllServices_PaginateInterval20, user.user_profil.getAllServices, user.user_profil.getTop7FavoriteServices, user.user_profil.getAllCategoryOfPaymentServiceProvider, user.user_profil.getAllPaymentServiceProviderByCategory
-</t>
-  </si>
-  <si>
-    <t>- UI_Description : Match the corresponding UI_img_name
-- App_Config_variable :  Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
-- DeepseekRaw_App_Config_variable-Flutter :  Match the corresponding UI_img_name
+    <t>3- Section3 : Box en dessous de Section2
+     Chaque ligne liste le produit/service suivi des sous-composantes
+      Ex:
+          Ligne1 : Achat (ou Facture) =&gt; Tranfer d'unité ;  Souscription Pass ; Paiement marchand
+          Ligne2 : Transfert d'argent =&gt; Mobile Money ;  Visa  ; Paypal ;  Stripe</t>
+  </si>
+  <si>
+    <t>Receipt_for_Purchase-and-MerchantPayment</t>
+  </si>
+  <si>
+    <t>Receipt_for_MoneyTransfer</t>
+  </si>
+  <si>
+    <t>- UI_Description : Need to be provided
+- App_Config_variable :  Need to be provided
+- DeepseekRaw_UI_Description-Flutter : Need to be provided
+- DeepseekRaw_App_Config_variable-Flutter :  Need to be provided
 - DeepseekRaw_UI_Description-EyeView : Need to be provided
 - DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
   </si>
   <si>
-    <t>- UI_Description :  Match the corresponding UI_img_name
-- App_Config_variable :   Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
-- DeepseekRaw_App_Config_variable-Flutter : Good and Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-EyeView : Need to be provided
-- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
-  </si>
-  <si>
-    <t>- UI_Description :   Need to be updated and improved as much as possible
-- App_Config_variable :   Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-Flutter :   Need to be provided
-- DeepseekRaw_App_Config_variable-Flutter :   Need to be provided
-- DeepseekRaw_UI_Description-EyeView :   Need to be provided
-- DeepseekRaw_App_Config_variable-EyeView :   Need to be provided</t>
-  </si>
-  <si>
-    <t>- UI_Description : Match the corresponding UI_img_name
-- App_Config_variable : Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
-- DeepseekRaw_App_Config_variable-Flutter : Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-EyeView : Need to be provided
-- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
-  </si>
-  <si>
-    <t>Screenshot_2026-02-11-20-01-54-347.jpg</t>
-  </si>
-  <si>
-    <t>Screenshot_2026-02-11-20-01-54-348.jpg</t>
-  </si>
-  <si>
-    <t>Screenshot_2026-02-11-20-01-54-349.jpg</t>
-  </si>
-  <si>
-    <t>Screenshot_2026-02-11-20-01-54-350.jpg</t>
-  </si>
-  <si>
-    <t>- UI_Description : Need to be provided
-- App_Config_variable : Need to be provided
-- DeepseekRaw_UI_Description-Flutter : Need to be provided
-- DeepseekRaw_App_Config_variable-Flutter : Need to be provided
-- DeepseekRaw_UI_Description-EyeView : Need to be provided
-- DeepseekRaw_App_Config_variable-EyeView : Need to be provided</t>
-  </si>
-  <si>
-    <t>Window_background_color = white
-Window_text_color = black
-transactionId
-transferAmount
-recipientName
-receiptURL
-- app: successAnimationDuration=2000, autoRedirectDelay=5000, shareReceiptEnabled=true
-- server: transactionDetailsEndpoint=/api/transaction/{id}
-- utilisateur: transactionId, transferAmount, recipientName, receiptURL</t>
-  </si>
-  <si>
-    <t>Fenêtre de confirmation de réussite du transfert
-Transaction Success UI – 2-Level Feedback
-Use case : 
-#On user side : 
-     -- step1 : user validate order detail 
-     -- step2 : user validate payment detail detail 
-     -- step3 : user is redirect to transaction_uccess ui 
-#On server side : 
-     -- step1 : server perform payment 
-                       and push feedback to user transaction_uccess ui
-     -- step2 : server perform order 
-                       and push feedback to user transaction_uccess ui 
-Ex: 
-- Operation1 (cercle loader =&gt; ok) 
-- Operation2 (cercle loader =&gt; ok) 
-- Button Create new order
+    <t>Service1_PaymentWindow</t>
+  </si>
+  <si>
+    <t>Service3_PaymentWindow</t>
+  </si>
+  <si>
+    <t>Service2_PaymentWindow</t>
+  </si>
+  <si>
+    <t>OnScreen_QRCodeScanner</t>
+  </si>
+  <si>
+    <t>Bouton flottant sur l'ecran de utilisateur pour scanner ou capturer l'ecran (ou la partie superieure de l'ecran) où est affiché un QR Code d'un service de paiement (paymentServiceProvider)
+1- Section1 : Fenetre de capture/scan est transparente avec une opacité reduite
+2- Section2 : Box totalement transparent dans la moitié superieure de l'ecran pour capturer le QR Code d'un service de paiement (paymentServiceProvider)
+3- Section3 : Box Message "Scanner un QR Code de portefeuille digitale valide" en dessous de Bouton-Section4
+4- Section4 : Bouton "Scanner ce QR Code" en dessous de Box-Section2 ; ce bouton apparait seulement sur presentation  dans le Box-Section2  d'un QR Code de portefeuille digitale valide ; ce bouton n'apparait si dans le Box-Section2  aucun QR Code de portefeuille digitale valide n'est present.
+     -- Sur presentation  d'un QR Code de portefeuille digitale valide et clique de Bouton-Section4, l'utilisateur est redirigé est sur UI_Name = MoneyTransfer_Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenêtre de confirmation de réussite du transfert
+Interface de succès de transaction MoneyTransfer_Success  – Retour d'information à deux niveaux
+# Illustration =&gt;
+## Côté utilisateur :
+Étape 1 : l’utilisateur valide les détails de l'achat
+Étape 2 : l’utilisateur valide les détails du paiement
+Étape 3 : l’utilisateur est redirigé vers l’interface MoneyTransfer_Success
+## Côté serveur :
+Étape 1 : le serveur effectue le paiement et envoie le retour d’information à l’interface MoneyTransfer_Success
+Étape 2 : le serveur crée la commande
+et envoie le retour d’information à l’interface MoneyTransfer_Success
+Description MoneyTransfer_Success =&gt; 
 1- Section1 : Header avec titre "Traitmentde de la transaction"
-2- Section2 : (Aligner à gauche) Operation1 (cercle loader qui se transforme en green check sur notification push venant du server) 
-3- Section3 : (Aligner à gauche) Operation2 (cercle loader qui se transforme en green check sur notification push venant du server) 
-4- Section4 : Message de confirmation
-    - "Transfert effectué avec succès"
+2- Section2 : 
+      -- Avant Retour du serveur pour Operation1 (paiement) : 
+          (Aligner à gauche) Text "Paiement en cours" suivi de cercle loader
+      -- Après Retour du serveur pour Operation1 (paiement) : 
+          (Aligner à gauche) 
+            --- Cas1 :  Retour_Serveur == paiment confirmé: Text "Paiement en effectué" suivi de cercle loader qui se transforme en green check 
+            --- Cas2 :  Retour_Serveur == paiment refusé : Text "Paiement refusé" suivi de cercle loader qui se transforme en croix rouge 
+      -- Avant Retour du serveur pour Operation2 (execution du service ou transaction) : 
+          (Aligner à gauche) Nom_service (Transfert d'unité ou Souscription Pass) , suivi de Text " en cours" suivi de cercle loader
+      -- Après Retour du serveur pour Operation2 (execution du service ou transaction) : 
+          (Aligner à gauche) Nom_service (Transfert d'unité ou Souscription Pass) , suivi de Text " effectué" suivi de cercle loader qui se transforme en green check 
+            --- Cas1 :  Retour_Serveur == transaction executé : (Aligner à gauche) Nom_service (Transfert d'unité ou Souscription Pass) , suivi de Text " effectué" suivi de cercle loader qui se transforme en green check 
+            --- Cas2 :  Retour_Serveur == transaction echoué : (Aligner à gauche) Nom_service (Transfert d'unité ou Souscription Pass) , suivi de Text " echoué" suivi de cercle loader qui se transforme en croix rouge 
+NB : Si Operation1.Retour_Serveur = PaymentOps.Retour_Serveur = "confirmé"  et Operation2.Retour_Serveur = TransactionOps.Retour_Serveur = "echoué" ; Alors Afficher Texte  "Petit problème technique en cours de résolution. Merci de patienter."
+3- Section3 : Message de confirmation et option de partage du recu de la transaction
+    - "Transaction effectué avec succès" 
+    - Nom_service
     - Montant transféré
     - Bénéficiaire
-5- Section5 : Boutons d'action
-    - "Nouveau transfert"
-    - "Retour à l'accueil"
-6- Section6 : Option de partage du reçu</t>
-  </si>
-  <si>
-    <t>Écran de succès. Structure :
-  - AppBar avec titre 'Traitmentde de la transaction'
-  - Icône Icons.check_circle (couleur verte, taille 80)
-  - Texte de status : Operation1 (cercle loader qui se transforme en green check sur notification push venant du server) 
-  - Texte de status : Operation2 (cercle loader qui se transforme en green check sur notification push venant du server) 
-  - Deux boutons horizontaux (OutlinedButton et ElevatedButton)
-  - Bouton de partage (IconButton) pour le reçu</t>
-  </si>
-  <si>
-    <t>- UI_Description : Match the desired UI
-- App_Config_variable :  Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-Flutter : Need to be updated and improved as much as possible
-- DeepseekRaw_App_Config_variable-Flutter :  Need to be updated and improved as much as possible
-- DeepseekRaw_UI_Description-EyeView :  Need to be updated and improved as much as possible
-- DeepseekRaw_App_Config_variable-EyeView :  Need to be updated and improved as much as possible</t>
-  </si>
-  <si>
-    <t>BankCard_Manamgement_Window</t>
-  </si>
-  <si>
-    <t>BankCard_Deposit</t>
-  </si>
-  <si>
-    <t>Forex_Conversion</t>
-  </si>
-  <si>
-    <t>BankCard_Locking</t>
-  </si>
-  <si>
-    <t>BankCard_Deletion</t>
-  </si>
-  <si>
-    <t>Besoin de créer un UI pour cettre fenetre</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-891.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-40-54-892.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-49-54-891.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-25-695.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-26-695.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-695.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-696.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-697.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-698.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-27-891.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-50-42-139.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-00-818.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-28-144.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-51-29-144.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-52-13-105.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-52-14-105.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-19-53-57-285.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-346.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-347.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-348.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-349.jpg</t>
-  </si>
-  <si>
-    <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave/Screenshot_2026-02-11-20-01-54-350.jpg</t>
+4- Section4 : Boutons d'action
+    - "Nouveau transfert" :  Sur clique de validation, l'utilisateur est redirigé vers  Screenshot_2026-02-11-19-50-42-139.jpg
+    - "Retour à l'accueil" :  Sur clique de validation, l'utilisateur est redirigé vers  Screenshot_2026-02-11-19-49-54-891.jpg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenetre qui affiche la liste complete de l'historique des toutes les transactions de l'utilisateur lorsqu'il clique sur le bouton de recherche dans MainWindow_TransactionsHistory-Section5
+1- Section1 : Header avec titre "Envoyer de l'argent" et précédé d'un bouton de retour
+2- Section2 : Box en dessous de Section2 et 
+     Searchbox ou champ de recherche
+3- Section3 : Box en dessous de Section2
+     Boutons de filtre des categories ou le types de transactions (produits ou services) listés en ligne
+     Ex:
+          -- Transferts : ce bouton redirige vers Screenshot_2026-02-11-19-50-27-697.jpg
+          -- Factures: ce bouton redirige vers Screenshot_2026-02-11-19-50-27-698.jpg
+4- Section4 : Box en dessous de Section3
+     Liste l'historique des transactions
+     Chaque ligne de transaction (transactionItem) contient : 
+         - Sous-ligne1: 
+                -- (Aligner à gauche)  Nom du destinaire suivi de son numero (account_id)
+                -- (Aligner à droite)  Montant de la transaction suivi du symbole de la monnaie
+         - Sous-ligne2: 
+               -- (Aligner à gauche)  Date et Heure sous le format (11 fevr. 2026, 19:16)
+         - Sur clique de la  ligne de transaction (transactionItem) selon la categorie ou le type de la transaction (transactionCategory) : 
+               -- transactionItem.transactionCategory = Transfert =&gt; l'utilisateur est redirigé  vers Screenshot_2026-02-11-19-50-27-699.jpg
+               -- transactionItem.transactionCategory = Facture ou Achat =&gt;  l'utilisateur est redirigé  vers Screenshot_2026-02-11-19-50-27-700.jpg
+</t>
+  </si>
+  <si>
+    <t>3- Section3 : Bouton "Confirmer" en bas
+        -- Sur clique de validation,  
+             --- si le destinataire a l'App mobile TipTop Transfer avec une activité recente de moins d'une semaine , le destinataire de la transactionn recoit une notification in-App ; 
+             --- sinon le destinataire n'a pas l'App mobile TipTop Transfer avec une activité recente de moins d'une semaine , le destinataire de la transactionn recoit une notification SMS</t>
+  </si>
+  <si>
+    <t>Fenetre de confirmation des détails du transfert
+1- Section1 : Header avec titre "Confirmer la Transaction" et précédé d'un bouton de retour
+2- Section2 : Récapitulatif détaillé
+    - Bénéficiaire : Nom et numéro complet
+    - Montant : Montant saisi + symbole monnaie
+    - Frais : Montant des frais
+    - Total : Montant total débité
+3- Section3 : Bouton "Confirmer" en bas
+        -- Sur clique de validation,
+            --- Si transactionCategory = Achat (transfert d'unité, souscription pass , facture) ; alors l'utilisateur est redirigé vers  UI_Name = MoneyTransfer_Success
+            --- Si transactionCategory = Transfert d'argent ; alors l'utilisateur est redirigé vers  Screenshot_2026-02-11-19-49-54-891.jpg</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1132,81 +1534,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1223,33 +1556,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1532,13 +1854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="U24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>3</v>
@@ -1627,88 +1949,88 @@
       <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>172</v>
+      <c r="V2" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>22</v>
@@ -1720,53 +2042,53 @@
         <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>28</v>
+      <c r="T3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:22" ht="293.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
@@ -1778,59 +2100,45 @@
         <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>174</v>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1841,56 +2149,44 @@
       <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>28</v>
+      <c r="I5" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
@@ -1902,53 +2198,47 @@
         <v>24</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>28</v>
+        <v>215</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>22</v>
@@ -1959,56 +2249,42 @@
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
@@ -2019,56 +2295,42 @@
       <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>28</v>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -2079,54 +2341,42 @@
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>28</v>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
@@ -2138,53 +2388,43 @@
         <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>28</v>
+        <v>210</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>22</v>
@@ -2196,43 +2436,43 @@
         <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>28</v>
+        <v>211</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="285" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:22" s="8" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>22</v>
@@ -2244,45 +2484,45 @@
         <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>28</v>
+        <v>227</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="255" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="8" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>22</v>
@@ -2294,51 +2534,45 @@
         <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>28</v>
+        <v>233</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="270" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:22" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>22</v>
@@ -2350,49 +2584,45 @@
         <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>28</v>
+        <v>235</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>22</v>
@@ -2404,49 +2634,59 @@
         <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>28</v>
+      <c r="Q15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
@@ -2458,145 +2698,173 @@
         <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="240" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>28</v>
+      <c r="T17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="255" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" s="4" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
@@ -2608,17 +2876,11 @@
         <v>24</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4"/>
@@ -2626,31 +2888,31 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>188</v>
+      <c r="T19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>22</v>
@@ -2661,42 +2923,56 @@
       <c r="H20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="I20" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>28</v>
+      <c r="T20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>22</v>
@@ -2707,42 +2983,54 @@
       <c r="H21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
+      <c r="I21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>28</v>
+      <c r="T21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>22</v>
@@ -2753,184 +3041,1074 @@
       <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
+      <c r="I22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>28</v>
+      <c r="T22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="375" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="285" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="315" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="285" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="300" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="315" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="3" t="s">
+    </row>
+    <row r="33" spans="1:22" ht="390" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="12" t="s">
+      <c r="I34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="24" spans="1:22" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="40" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>193</v>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:V42"/>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1"/>
-    <hyperlink ref="T3:T24" r:id="rId2" display="https://ttt-mobileapp.fwh.is/storage/screenshot/"/>
+    <hyperlink ref="T3:T42" r:id="rId2" display="https://ttt-mobileapp.fwh.is/storage/screenshot/"/>
+    <hyperlink ref="T4" r:id="rId3"/>
+    <hyperlink ref="V4" r:id="rId4"/>
+    <hyperlink ref="T5" r:id="rId5"/>
+    <hyperlink ref="T6" r:id="rId6"/>
+    <hyperlink ref="T7" r:id="rId7"/>
+    <hyperlink ref="T8" r:id="rId8"/>
+    <hyperlink ref="T9" r:id="rId9"/>
+    <hyperlink ref="T10" r:id="rId10"/>
+    <hyperlink ref="T11" r:id="rId11"/>
+    <hyperlink ref="T12" r:id="rId12"/>
+    <hyperlink ref="T13" r:id="rId13"/>
+    <hyperlink ref="T14" r:id="rId14"/>
+    <hyperlink ref="T19" r:id="rId15"/>
+    <hyperlink ref="V19" r:id="rId16"/>
+    <hyperlink ref="T23" r:id="rId17"/>
+    <hyperlink ref="T24" r:id="rId18"/>
+    <hyperlink ref="V23" r:id="rId19"/>
+    <hyperlink ref="V24" r:id="rId20"/>
+    <hyperlink ref="T35" r:id="rId21"/>
+    <hyperlink ref="T36" r:id="rId22"/>
+    <hyperlink ref="T37" r:id="rId23"/>
+    <hyperlink ref="V35" r:id="rId24"/>
+    <hyperlink ref="V36" r:id="rId25"/>
+    <hyperlink ref="V37" r:id="rId26"/>
+    <hyperlink ref="T33" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/web/storage/excel/Feuil4-Unified_Build.xlsx
+++ b/web/storage/excel/Feuil4-Unified_Build.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="270">
   <si>
     <t>UI_ID</t>
   </si>
@@ -1454,6 +1454,12 @@
         -- Sur clique de validation,
             --- Si transactionCategory = Achat (transfert d'unité, souscription pass , facture) ; alors l'utilisateur est redirigé vers  UI_Name = MoneyTransfer_Success
             --- Si transactionCategory = Transfert d'argent ; alors l'utilisateur est redirigé vers  Screenshot_2026-02-11-19-49-54-891.jpg</t>
+  </si>
+  <si>
+    <t>-Pendant la phase d'inscription (SignUp) Demander/obtenir toutes les permissions necessaires de l'utilisateur, pour le bon fonctionnement de l'app:
+   -- permission d'accès à la localisation
+   -- permission d'accès aux contacts
+   -- permission de superposition de l'app (pour l'eventualité du scan sur l'ecran de l'utilisateur , de QRCode de paymentServiceProvider en particulier les applications d'operateur MobileMoney )</t>
   </si>
 </sst>
 </file>
@@ -1857,10 +1863,10 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,7 +3606,9 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="R33" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="S33" s="4" t="s">
         <v>118</v>
       </c>
